--- a/00_基本設計/03_機能一覧.xlsx
+++ b/00_基本設計/03_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202401_dairyProduct\00_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3D040-6455-44F3-A236-6BC074B66C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62022F-D975-43D3-819E-D81EC6F68E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,29 +90,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ログイン成功：0
-・ログイン失敗：9</t>
-    <rPh sb="5" eb="7">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TOPページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・登録成功：0
-・登録失敗：9</t>
-    <rPh sb="1" eb="5">
-      <t>トウロクセイコウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>トウロクシッパイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -454,20 +432,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・削除成功：0
-・削除失敗：9</t>
-    <rPh sb="1" eb="5">
-      <t>サクジョセイコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日用品登録ページ</t>
     <rPh sb="0" eb="3">
       <t>ニチヨウヒン</t>
@@ -536,6 +500,45 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログイン成功：ログインユーザIDを返す
+・ログイン失敗：-1</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・削除成功：0
+・削除失敗：-1</t>
+    <rPh sb="1" eb="5">
+      <t>サクジョセイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録成功：0
+・登録失敗：-1</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクセイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トウロクシッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -953,13 +956,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="126">
@@ -968,22 +971,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="252">
@@ -992,22 +995,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="360">
@@ -1016,22 +1019,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36">
@@ -1040,22 +1043,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90">
@@ -1064,22 +1067,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/00_基本設計/03_機能一覧.xlsx
+++ b/00_基本設計/03_機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202401_dairyProduct\00_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62022F-D975-43D3-819E-D81EC6F68E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD1178-0D92-4F18-97C5-2AA9EB60C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -904,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/00_基本設計/03_機能一覧.xlsx
+++ b/00_基本設計/03_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202401_dairyProduct\00_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD1178-0D92-4F18-97C5-2AA9EB60C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3872B-676B-4659-9B84-53139DD4A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,12 +535,22 @@
   </si>
   <si>
     <t>・登録成功：0
-・登録失敗：-1</t>
+・登録失敗：-1
+・バリデーションチェックエラー：13_機能詳細設計に記述</t>
     <rPh sb="1" eb="5">
       <t>トウロクセイコウ</t>
     </rPh>
     <rPh sb="9" eb="13">
       <t>トウロクシッパイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ショウサイセッケイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キジュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -906,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
